--- a/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-IS-installatiesspoor.xlsx
+++ b/tabellen/concept/5.1/objectentabellen/objecten-concept-5.1-IS-installatiesspoor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\OneDrive\GitHub\NLCS\tabellen\concept\5.1\objectentabellen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{E639E50C-D99B-44B4-AAE4-6F2AE33A0549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F6FCB95D-B11E-4116-A46F-EA51CCFCC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B3CA9186-4CE9-44BF-B7CC-9CF1486AC301}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{9A292120-F006-4207-895D-78978785CC73}"/>
   </bookViews>
   <sheets>
     <sheet name="objecten-concept-5.1-IS-install" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3925" uniqueCount="332">
   <si>
     <t>objectURI</t>
   </si>
@@ -1878,11 +1878,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1CAC98F-286A-4287-A8C1-B8D147B90832}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3F9299-151B-4387-8382-98C75657BAE8}">
   <dimension ref="A1:BS91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H17" sqref="G17:H17"/>
+    <sheetView tabSelected="1" topLeftCell="G43" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50:W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11286,6 +11286,48 @@
       <c r="I50" t="s">
         <v>76</v>
       </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+      <c r="K50" t="s">
+        <v>78</v>
+      </c>
+      <c r="L50" t="s">
+        <v>79</v>
+      </c>
+      <c r="M50">
+        <v>251</v>
+      </c>
+      <c r="N50" t="s">
+        <v>80</v>
+      </c>
+      <c r="O50">
+        <v>254</v>
+      </c>
+      <c r="P50" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q50">
+        <v>251</v>
+      </c>
+      <c r="R50" t="s">
+        <v>79</v>
+      </c>
+      <c r="S50">
+        <v>251</v>
+      </c>
+      <c r="T50" t="s">
+        <v>80</v>
+      </c>
+      <c r="U50">
+        <v>254</v>
+      </c>
+      <c r="V50" t="s">
+        <v>81</v>
+      </c>
+      <c r="W50" t="s">
+        <v>82</v>
+      </c>
       <c r="X50" t="s">
         <v>83</v>
       </c>
@@ -19206,7 +19248,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BS91" xr:uid="{B1CAC98F-286A-4287-A8C1-B8D147B90832}">
+  <autoFilter ref="A1:BS91" xr:uid="{DF3F9299-151B-4387-8382-98C75657BAE8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BS91">
       <sortCondition ref="E1:E91"/>
     </sortState>
